--- a/tmp/xls/upload.xlsx
+++ b/tmp/xls/upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergo\Desktop\ИСМиПИ 05 12 мая 2019 - копия\Новое\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD64D2B2-C3DF-4EDB-81AE-715A1E33A95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF855D8-35CA-46E1-A689-4B2CBF60ECB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1470,7 +1470,7 @@
   <dimension ref="A1:AJ287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>3341</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>3356</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>36</v>

--- a/tmp/xls/upload.xlsx
+++ b/tmp/xls/upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergo\Desktop\ИСМиПИ 05 12 мая 2019 - копия\Новое\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D49003-C5D1-4860-8D59-1D959BF101F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8830E-C24E-4A38-9CC1-39BDDE049C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31500" yWindow="2535" windowWidth="25410" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
   <si>
     <t>Код</t>
   </si>
@@ -156,63 +156,9 @@
     <t>весенний</t>
   </si>
   <si>
-    <t>Ф1</t>
-  </si>
-  <si>
-    <t>Информатизация образования</t>
-  </si>
-  <si>
     <t>ПО(ИвО)-м</t>
   </si>
   <si>
-    <t>Ф3</t>
-  </si>
-  <si>
-    <t>Методика обучения спортивному программированию</t>
-  </si>
-  <si>
-    <t>Ф4</t>
-  </si>
-  <si>
-    <t>Проектирование и разработка онлайн-курсов</t>
-  </si>
-  <si>
-    <t>Ф2</t>
-  </si>
-  <si>
-    <t>Теория и методика обучения информатике в вузе</t>
-  </si>
-  <si>
-    <t>Ф5</t>
-  </si>
-  <si>
-    <t>Информационные технологии маркетинга образовательных услуг</t>
-  </si>
-  <si>
-    <t>Ф6</t>
-  </si>
-  <si>
-    <t>Сетевые технологии дистанционного обучения</t>
-  </si>
-  <si>
-    <t>Ф12</t>
-  </si>
-  <si>
-    <t>Разработка цифровых образовательных ресурсов/ Мировые информационные ресурсы</t>
-  </si>
-  <si>
-    <t>Б1.О2</t>
-  </si>
-  <si>
-    <t>Технологии проектирования информационных систем</t>
-  </si>
-  <si>
-    <t>ИСиТ-м</t>
-  </si>
-  <si>
-    <t>Модели информационных процессов и систем</t>
-  </si>
-  <si>
     <t>ОЗО_В</t>
   </si>
   <si>
@@ -229,6 +175,99 @@
   </si>
   <si>
     <t>Теория информации</t>
+  </si>
+  <si>
+    <t>ПО(МО)-м</t>
+  </si>
+  <si>
+    <t>Ф8</t>
+  </si>
+  <si>
+    <t>Методология педагогической деятельности преподавателя ФМО / Современные проблемы доп ФМО   1192 1191</t>
+  </si>
+  <si>
+    <t>Ф9</t>
+  </si>
+  <si>
+    <t>История ФМО / Педагогическое проектирование в ФМО</t>
+  </si>
+  <si>
+    <t>История ФМО / Педагогическое проектирование в ФМО   1191 1192 осенний</t>
+  </si>
+  <si>
+    <t>Ф10</t>
+  </si>
+  <si>
+    <t>Инновационные процессы в образовании</t>
+  </si>
+  <si>
+    <t>Инновационные процессы в образовании   1191 1192 весенний</t>
+  </si>
+  <si>
+    <t>Ф7</t>
+  </si>
+  <si>
+    <t>Реализация компетентностного подхода в условиях смены образовательной парадигмы (на примере ФМО)</t>
+  </si>
+  <si>
+    <t>Социальная информатика</t>
+  </si>
+  <si>
+    <t>Методология пед.деят-ти учителя математики и информатики/ Современные проблемы дополнительного ФМО</t>
+  </si>
+  <si>
+    <t>Образовательная роботетхника/ разработка и стандартизация прогр средств и технологий</t>
+  </si>
+  <si>
+    <t>Ф11</t>
+  </si>
+  <si>
+    <t>Мультимедиатехнологии в образовании / Функциональное программирование</t>
+  </si>
+  <si>
+    <t>1.1.20</t>
+  </si>
+  <si>
+    <t>Интеллектуальные системы и технологии</t>
+  </si>
+  <si>
+    <t>1.2.1.15</t>
+  </si>
+  <si>
+    <t>Базовые информационные процессы и технологии</t>
+  </si>
+  <si>
+    <t>1.2.2.6</t>
+  </si>
+  <si>
+    <t>Абстрактная и компьютерная алгебра/ Компьютерная графика</t>
+  </si>
+  <si>
+    <t>1.2.2.9</t>
+  </si>
+  <si>
+    <t>Распознавание образов/ Банковские информационные системы</t>
+  </si>
+  <si>
+    <t>1.2.2.10</t>
+  </si>
+  <si>
+    <t>WEB-программирование / Основы научных и инженерных исследований</t>
+  </si>
+  <si>
+    <t>1.1.23</t>
+  </si>
+  <si>
+    <t>Методы и средства проектирования ИС и технологий</t>
+  </si>
+  <si>
+    <t>Оч_В</t>
+  </si>
+  <si>
+    <t>Факультетский руководитель</t>
+  </si>
+  <si>
+    <t>Год</t>
   </si>
 </sst>
 </file>
@@ -622,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:AJ12"/>
+      <selection activeCell="A18" sqref="A18:AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,46 +781,46 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>3423</v>
+        <v>4248</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J2" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K2" s="3">
         <v>144</v>
       </c>
       <c r="L2" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M2" s="3">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="N2" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O2" s="3">
         <v>5</v>
@@ -793,25 +832,25 @@
         <v>1</v>
       </c>
       <c r="R2" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S2" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T2" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U2" s="3">
         <v>0</v>
       </c>
       <c r="V2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X2" s="3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y2" s="3">
         <v>0</v>
@@ -841,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="3">
-        <v>28.5</v>
+        <v>24.25</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>39</v>
@@ -852,46 +891,46 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>3424</v>
+        <v>4249</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J3" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3">
         <v>144</v>
       </c>
       <c r="L3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" s="3">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="N3" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O3" s="3">
         <v>5</v>
@@ -903,25 +942,25 @@
         <v>1</v>
       </c>
       <c r="R3" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S3" s="3">
         <v>0</v>
       </c>
       <c r="T3" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U3" s="3">
         <v>0</v>
       </c>
       <c r="V3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X3" s="3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y3" s="3">
         <v>0</v>
@@ -951,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="3">
-        <v>28.5</v>
+        <v>24.25</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>39</v>
@@ -962,46 +1001,46 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3425</v>
+        <v>4250</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K4" s="3">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="L4" s="3">
         <v>2</v>
       </c>
       <c r="M4" s="3">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="N4" s="3">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O4" s="3">
         <v>5</v>
@@ -1013,25 +1052,25 @@
         <v>1</v>
       </c>
       <c r="R4" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S4" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T4" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
         <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X4" s="3">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
         <v>0</v>
@@ -1061,57 +1100,57 @@
         <v>0</v>
       </c>
       <c r="AH4" s="3">
-        <v>30.25</v>
+        <v>14.5</v>
       </c>
       <c r="AI4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>3427</v>
+        <v>4251</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J5" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K5" s="3">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="L5" s="3">
         <v>2</v>
       </c>
       <c r="M5" s="3">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="N5" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O5" s="3">
         <v>5</v>
@@ -1123,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="R5" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S5" s="3">
         <v>0</v>
       </c>
       <c r="T5" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="U5" s="3">
         <v>0</v>
@@ -1171,57 +1210,57 @@
         <v>0</v>
       </c>
       <c r="AH5" s="3">
-        <v>26.5</v>
+        <v>0.5</v>
       </c>
       <c r="AI5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>3428</v>
+        <v>4252</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K6" s="3">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="L6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="3">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="N6" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O6" s="3">
         <v>5</v>
@@ -1239,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="T6" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="U6" s="3">
         <v>0</v>
       </c>
       <c r="V6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X6" s="3">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="3">
         <v>0</v>
@@ -1281,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="3">
-        <v>30.25</v>
+        <v>22.5</v>
       </c>
       <c r="AI6" s="2" t="s">
         <v>39</v>
@@ -1292,46 +1331,46 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>3429</v>
+        <v>4253</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K7" s="3">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="L7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="3">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="N7" s="3">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O7" s="3">
         <v>5</v>
@@ -1343,13 +1382,13 @@
         <v>1</v>
       </c>
       <c r="R7" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
       </c>
       <c r="T7" s="3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="U7" s="3">
         <v>0</v>
@@ -1391,54 +1430,54 @@
         <v>0</v>
       </c>
       <c r="AH7" s="3">
-        <v>36.5</v>
+        <v>0.5</v>
       </c>
       <c r="AI7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>3430</v>
+        <v>4254</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K8" s="3">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="L8" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M8" s="3">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="N8" s="3">
         <v>22</v>
@@ -1465,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
@@ -1501,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="3">
-        <v>22.5</v>
+        <v>24.25</v>
       </c>
       <c r="AI8" s="2" t="s">
         <v>39</v>
@@ -1512,49 +1551,49 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>3432</v>
+        <v>4283</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K9" s="3">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="L9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="3">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="N9" s="3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="O9" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P9" s="3">
         <v>1</v>
@@ -1563,13 +1602,13 @@
         <v>1</v>
       </c>
       <c r="R9" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S9" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -1581,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -1611,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="3">
-        <v>28.75</v>
+        <v>15.75</v>
       </c>
       <c r="AI9" s="2" t="s">
         <v>39</v>
@@ -1622,83 +1661,83 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>3433</v>
+        <v>4284</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>180</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>164</v>
+      </c>
+      <c r="N10" s="3">
+        <v>16</v>
+      </c>
+      <c r="O10" s="3">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>6</v>
+      </c>
+      <c r="S10" s="3">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
+        <v>6</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="3">
-        <v>108</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>90</v>
-      </c>
-      <c r="N10" s="3">
-        <v>18</v>
-      </c>
-      <c r="O10" s="3">
-        <v>7</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3">
-        <v>8</v>
-      </c>
-      <c r="S10" s="3">
-        <v>10</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
       <c r="AA10" s="3">
         <v>0</v>
       </c>
@@ -1721,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="AH10" s="3">
-        <v>18.7</v>
+        <v>33.25</v>
       </c>
       <c r="AI10" s="2" t="s">
         <v>39</v>
@@ -1731,222 +1770,882 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>4284</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="A11" s="3">
+        <v>4285</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>5</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="5">
-        <v>4</v>
-      </c>
-      <c r="K11" s="5">
-        <v>180</v>
-      </c>
-      <c r="L11" s="5">
-        <v>4</v>
-      </c>
-      <c r="M11" s="5">
-        <v>164</v>
-      </c>
-      <c r="N11" s="5">
-        <v>16</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>144</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>132</v>
+      </c>
+      <c r="N11" s="3">
+        <v>12</v>
+      </c>
+      <c r="O11" s="3">
         <v>5</v>
       </c>
-      <c r="P11" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>1</v>
-      </c>
-      <c r="R11" s="5">
-        <v>6</v>
-      </c>
-      <c r="S11" s="5">
-        <v>4</v>
-      </c>
-      <c r="T11" s="5">
-        <v>6</v>
-      </c>
-      <c r="U11" s="5">
-        <v>0</v>
-      </c>
-      <c r="V11" s="5">
-        <v>1</v>
-      </c>
-      <c r="W11" s="5">
-        <v>0</v>
-      </c>
-      <c r="X11" s="5">
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>4</v>
+      </c>
+      <c r="S11" s="3">
+        <v>4</v>
+      </c>
+      <c r="T11" s="3">
+        <v>4</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
         <v>1.25</v>
       </c>
-      <c r="Y11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>15</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="5">
-        <v>33.25</v>
-      </c>
-      <c r="AI11" s="4" t="s">
+      <c r="Y11" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>15.75</v>
+      </c>
+      <c r="AI11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AJ11" s="4" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>4285</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="3">
+        <v>4286</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>144</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>130</v>
+      </c>
+      <c r="N12" s="3">
+        <v>14</v>
+      </c>
+      <c r="O12" s="3">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>6</v>
+      </c>
+      <c r="T12" s="3">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>16.25</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>4288</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3">
+        <v>72</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>66</v>
+      </c>
+      <c r="N13" s="3">
+        <v>6</v>
+      </c>
+      <c r="O13" s="3">
+        <v>5</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>6</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>4289</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>72</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
         <v>62</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="N14" s="3">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>6</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4290</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>72</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2</v>
+      </c>
+      <c r="M15" s="3">
+        <v>62</v>
+      </c>
+      <c r="N15" s="3">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>6</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>4291</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>144</v>
+      </c>
+      <c r="L16" s="3">
+        <v>4</v>
+      </c>
+      <c r="M16" s="3">
+        <v>132</v>
+      </c>
+      <c r="N16" s="3">
+        <v>12</v>
+      </c>
+      <c r="O16" s="3">
         <v>5</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="5">
-        <v>4</v>
-      </c>
-      <c r="K12" s="5">
-        <v>144</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>4</v>
+      </c>
+      <c r="S16" s="3">
+        <v>4</v>
+      </c>
+      <c r="T16" s="3">
+        <v>4</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>29.25</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>4292</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="M12" s="5">
-        <v>132</v>
-      </c>
-      <c r="N12" s="5">
-        <v>12</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="H17" s="3">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>216</v>
+      </c>
+      <c r="L17" s="3">
+        <v>6</v>
+      </c>
+      <c r="M17" s="3">
+        <v>198</v>
+      </c>
+      <c r="N17" s="3">
+        <v>18</v>
+      </c>
+      <c r="O17" s="3">
         <v>5</v>
       </c>
-      <c r="P12" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1</v>
-      </c>
-      <c r="R12" s="5">
-        <v>4</v>
-      </c>
-      <c r="S12" s="5">
-        <v>4</v>
-      </c>
-      <c r="T12" s="5">
-        <v>4</v>
-      </c>
-      <c r="U12" s="5">
-        <v>0</v>
-      </c>
-      <c r="V12" s="5">
-        <v>1</v>
-      </c>
-      <c r="W12" s="5">
-        <v>0</v>
-      </c>
-      <c r="X12" s="5">
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>6</v>
+      </c>
+      <c r="S17" s="3">
+        <v>6</v>
+      </c>
+      <c r="T17" s="3">
+        <v>6</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>1.25</v>
       </c>
-      <c r="Y12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="Z12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="5">
-        <v>15.75</v>
-      </c>
-      <c r="AI12" s="4" t="s">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>20.25</v>
+      </c>
+      <c r="AI17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AJ12" s="4" t="s">
+      <c r="AJ17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>5757</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>1</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>50</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>50</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
         <v>40</v>
       </c>
     </row>
